--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H2">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I2">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J2">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.650203</v>
+        <v>2.713818333333333</v>
       </c>
       <c r="N2">
-        <v>4.950609</v>
+        <v>8.141454999999999</v>
       </c>
       <c r="O2">
-        <v>0.300316112070252</v>
+        <v>0.4320628550779991</v>
       </c>
       <c r="P2">
-        <v>0.3003161120702519</v>
+        <v>0.4320628550779991</v>
       </c>
       <c r="Q2">
-        <v>1.49577700326</v>
+        <v>2.74805948385111</v>
       </c>
       <c r="R2">
-        <v>13.46199302934</v>
+        <v>24.73253535466</v>
       </c>
       <c r="S2">
-        <v>0.005231307446417303</v>
+        <v>0.008038548691384364</v>
       </c>
       <c r="T2">
-        <v>0.005231307446417303</v>
+        <v>0.008038548691384362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H3">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I3">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J3">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.74692</v>
       </c>
       <c r="O3">
-        <v>0.4092847532190533</v>
+        <v>0.3580555954903459</v>
       </c>
       <c r="P3">
-        <v>0.4092847532190533</v>
+        <v>0.3580555954903459</v>
       </c>
       <c r="Q3">
-        <v>2.0385144088</v>
+        <v>2.277349379537778</v>
       </c>
       <c r="R3">
-        <v>18.3466296792</v>
+        <v>20.49614441584</v>
       </c>
       <c r="S3">
-        <v>0.007129468886834293</v>
+        <v>0.006661640325577554</v>
       </c>
       <c r="T3">
-        <v>0.007129468886834293</v>
+        <v>0.006661640325577553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H4">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I4">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J4">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.226085333333333</v>
+        <v>1.308511666666667</v>
       </c>
       <c r="N4">
-        <v>3.678256</v>
+        <v>3.925535</v>
       </c>
       <c r="O4">
-        <v>0.2231320512524978</v>
+        <v>0.2083261357839125</v>
       </c>
       <c r="P4">
-        <v>0.2231320512524978</v>
+        <v>0.2083261357839125</v>
       </c>
       <c r="Q4">
-        <v>1.11134826784</v>
+        <v>1.325021594535555</v>
       </c>
       <c r="R4">
-        <v>10.00213441056</v>
+        <v>11.92519435082</v>
       </c>
       <c r="S4">
-        <v>0.003886812309885334</v>
+        <v>0.00387591704888543</v>
       </c>
       <c r="T4">
-        <v>0.003886812309885334</v>
+        <v>0.003875917048885429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H5">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I5">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J5">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.369625</v>
+        <v>0.009769666666666668</v>
       </c>
       <c r="N5">
-        <v>1.108875</v>
+        <v>0.029309</v>
       </c>
       <c r="O5">
-        <v>0.0672670834581969</v>
+        <v>0.001555413647742459</v>
       </c>
       <c r="P5">
-        <v>0.06726708345819689</v>
+        <v>0.001555413647742458</v>
       </c>
       <c r="Q5">
-        <v>0.3350354925000001</v>
+        <v>0.009892933807555557</v>
       </c>
       <c r="R5">
-        <v>3.015319432500001</v>
+        <v>0.08903640426800001</v>
       </c>
       <c r="S5">
-        <v>0.001171747969723722</v>
+        <v>2.893854029725453E-05</v>
       </c>
       <c r="T5">
-        <v>0.001171747969723722</v>
+        <v>2.893854029725452E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>127.765256</v>
       </c>
       <c r="I6">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J6">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.650203</v>
+        <v>2.713818333333333</v>
       </c>
       <c r="N6">
-        <v>4.950609</v>
+        <v>8.141454999999999</v>
       </c>
       <c r="O6">
-        <v>0.300316112070252</v>
+        <v>0.4320628550779991</v>
       </c>
       <c r="P6">
-        <v>0.3003161120702519</v>
+        <v>0.4320628550779991</v>
       </c>
       <c r="Q6">
-        <v>70.27953624898933</v>
+        <v>115.5772313652755</v>
       </c>
       <c r="R6">
-        <v>632.5158262409039</v>
+        <v>1040.19508228748</v>
       </c>
       <c r="S6">
-        <v>0.2457945673110379</v>
+        <v>0.3380833666100877</v>
       </c>
       <c r="T6">
-        <v>0.2457945673110379</v>
+        <v>0.3380833666100877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>127.765256</v>
       </c>
       <c r="I7">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J7">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.74692</v>
       </c>
       <c r="O7">
-        <v>0.4092847532190533</v>
+        <v>0.3580555954903459</v>
       </c>
       <c r="P7">
-        <v>0.4092847532190533</v>
+        <v>0.3580555954903459</v>
       </c>
       <c r="Q7">
         <v>95.78021789016887</v>
@@ -883,10 +883,10 @@
         <v>862.02196101152</v>
       </c>
       <c r="S7">
-        <v>0.3349802584050139</v>
+        <v>0.2801736824497505</v>
       </c>
       <c r="T7">
-        <v>0.3349802584050139</v>
+        <v>0.2801736824497505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>127.765256</v>
       </c>
       <c r="I8">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J8">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.226085333333333</v>
+        <v>1.308511666666667</v>
       </c>
       <c r="N8">
-        <v>3.678256</v>
+        <v>3.925535</v>
       </c>
       <c r="O8">
-        <v>0.2231320512524978</v>
+        <v>0.2083261357839125</v>
       </c>
       <c r="P8">
-        <v>0.2231320512524978</v>
+        <v>0.2083261357839125</v>
       </c>
       <c r="Q8">
-        <v>52.21703549705956</v>
+        <v>55.72744269021778</v>
       </c>
       <c r="R8">
-        <v>469.953319473536</v>
+        <v>501.54698421196</v>
       </c>
       <c r="S8">
-        <v>0.1826230554623136</v>
+        <v>0.1630123962541992</v>
       </c>
       <c r="T8">
-        <v>0.1826230554623136</v>
+        <v>0.1630123962541991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>127.765256</v>
       </c>
       <c r="I9">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J9">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.369625</v>
+        <v>0.009769666666666668</v>
       </c>
       <c r="N9">
-        <v>1.108875</v>
+        <v>0.029309</v>
       </c>
       <c r="O9">
-        <v>0.0672670834581969</v>
+        <v>0.001555413647742459</v>
       </c>
       <c r="P9">
-        <v>0.06726708345819689</v>
+        <v>0.001555413647742458</v>
       </c>
       <c r="Q9">
-        <v>15.74174424966667</v>
+        <v>0.4160746542337778</v>
       </c>
       <c r="R9">
-        <v>141.675698247</v>
+        <v>3.744671888104</v>
       </c>
       <c r="S9">
-        <v>0.05505493381259299</v>
+        <v>0.001217090236570129</v>
       </c>
       <c r="T9">
-        <v>0.05505493381259298</v>
+        <v>0.001217090236570129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H10">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I10">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J10">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.650203</v>
+        <v>2.713818333333333</v>
       </c>
       <c r="N10">
-        <v>4.950609</v>
+        <v>8.141454999999999</v>
       </c>
       <c r="O10">
-        <v>0.300316112070252</v>
+        <v>0.4320628550779991</v>
       </c>
       <c r="P10">
-        <v>0.3003161120702519</v>
+        <v>0.4320628550779991</v>
       </c>
       <c r="Q10">
-        <v>14.093456408914</v>
+        <v>29.37978280296888</v>
       </c>
       <c r="R10">
-        <v>126.841107680226</v>
+        <v>264.41804522672</v>
       </c>
       <c r="S10">
-        <v>0.04929023731279682</v>
+        <v>0.08594093977652707</v>
       </c>
       <c r="T10">
-        <v>0.04929023731279681</v>
+        <v>0.08594093977652706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H11">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I11">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J11">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.74692</v>
       </c>
       <c r="O11">
-        <v>0.4092847532190533</v>
+        <v>0.3580555954903459</v>
       </c>
       <c r="P11">
-        <v>0.4092847532190533</v>
+        <v>0.3580555954903459</v>
       </c>
       <c r="Q11">
-        <v>19.20721731698666</v>
+        <v>24.34737331214222</v>
       </c>
       <c r="R11">
-        <v>172.86495585288</v>
+        <v>219.12635980928</v>
       </c>
       <c r="S11">
-        <v>0.06717502592720513</v>
+        <v>0.07122027271501791</v>
       </c>
       <c r="T11">
-        <v>0.06717502592720513</v>
+        <v>0.07122027271501789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H12">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I12">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J12">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.226085333333333</v>
+        <v>1.308511666666667</v>
       </c>
       <c r="N12">
-        <v>3.678256</v>
+        <v>3.925535</v>
       </c>
       <c r="O12">
-        <v>0.2231320512524978</v>
+        <v>0.2083261357839125</v>
       </c>
       <c r="P12">
-        <v>0.2231320512524978</v>
+        <v>0.2083261357839125</v>
       </c>
       <c r="Q12">
-        <v>10.47130577204267</v>
+        <v>14.16594032460445</v>
       </c>
       <c r="R12">
-        <v>94.24175194838399</v>
+        <v>127.49346292144</v>
       </c>
       <c r="S12">
-        <v>0.03662218348029884</v>
+        <v>0.04143782248082797</v>
       </c>
       <c r="T12">
-        <v>0.03662218348029884</v>
+        <v>0.04143782248082795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H13">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I13">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J13">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.369625</v>
+        <v>0.009769666666666668</v>
       </c>
       <c r="N13">
-        <v>1.108875</v>
+        <v>0.029309</v>
       </c>
       <c r="O13">
-        <v>0.0672670834581969</v>
+        <v>0.001555413647742459</v>
       </c>
       <c r="P13">
-        <v>0.06726708345819689</v>
+        <v>0.001555413647742458</v>
       </c>
       <c r="Q13">
-        <v>3.15675939575</v>
+        <v>0.1057663592284444</v>
       </c>
       <c r="R13">
-        <v>28.41083456175</v>
+        <v>0.951897233056</v>
       </c>
       <c r="S13">
-        <v>0.0110404016758802</v>
+        <v>0.0003093848708750749</v>
       </c>
       <c r="T13">
-        <v>0.01104040167588019</v>
+        <v>0.0003093848708750748</v>
       </c>
     </row>
   </sheetData>
